--- a/基金/基金定投/指数基金.xlsx
+++ b/基金/基金定投/指数基金.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\基金\基金定投\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0018FEF-31BC-43EB-803E-9110CE13F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79083169-BD46-4D39-8743-E20CC64E396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,222 @@
   </si>
   <si>
     <t>博时沪深300指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城沪深300指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全沪深300指数(LOF)A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银沪深300指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>481009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘沪深300ETF联接C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发沪深300ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万菱信沪深300价值指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310398</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万菱信沪深300指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞沪深300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞沪深300ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞沪深300ETF联接C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方沪深300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方沪深300ETF联接I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达沪深300量化增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安沪深300增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富沪深300基本面增强指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘沪深300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>515330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝沪深300指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏沪深300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏沪深300ETF联接C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人保沪深300A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安沪深300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实沪深300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实沪深300ETF联接C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发沪深300指数增强C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘沪深300指数增强发起C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华沪深300指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信保诚沪深300指数(LOF)A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银沪深300指数C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006937</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +296,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,18 +338,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,38 +638,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -454,8 +684,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -464,7 +694,7 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -474,12 +704,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>50002</v>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -489,6 +719,294 @@
       </c>
       <c r="F4" s="1">
         <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="G5" s="2">
+        <v>163407</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>69.319999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>122.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>68.11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>310318</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>33.89</v>
+      </c>
+      <c r="G8" s="2">
+        <v>110030</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21.55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3596.27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11.29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51.51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1640.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1563.89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.66</v>
       </c>
     </row>
   </sheetData>

--- a/基金/基金定投/指数基金.xlsx
+++ b/基金/基金定投/指数基金.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB91827-1DCA-43DD-B240-9EDDC8D0FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0DEFC-5297-4A01-A2A8-C4018039CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$135</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -222,9 +225,6 @@
     <t>022859</t>
   </si>
   <si>
-    <t>中银沪深300指数A</t>
-  </si>
-  <si>
     <t>006939</t>
   </si>
   <si>
@@ -1940,6 +1940,10 @@
   </si>
   <si>
     <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>中银沪深300指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1970,7 +1974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,6 +1993,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2002,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2028,11 +2038,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8CBAD"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2308,10 +2329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2366,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2360,7 +2382,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -2383,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2393,29 +2415,29 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4">
         <v>135.72</v>
       </c>
       <c r="E4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" t="s">
         <v>226</v>
-      </c>
-      <c r="I4" t="s">
-        <v>227</v>
       </c>
       <c r="J4">
         <v>75.94</v>
       </c>
       <c r="K4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2425,29 +2447,29 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5">
         <v>105.04</v>
       </c>
       <c r="E5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" t="s">
         <v>228</v>
-      </c>
-      <c r="I5" t="s">
-        <v>229</v>
       </c>
       <c r="J5">
         <v>69.319999999999993</v>
       </c>
       <c r="K5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2457,93 +2479,93 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D6">
         <v>74.260000000000005</v>
       </c>
       <c r="E6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" t="s">
         <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>231</v>
       </c>
       <c r="J6">
         <v>43.59</v>
       </c>
       <c r="K6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D7">
         <v>68.98</v>
       </c>
       <c r="E7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
       </c>
       <c r="H7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" t="s">
         <v>232</v>
-      </c>
-      <c r="I7" t="s">
-        <v>233</v>
       </c>
       <c r="J7">
         <v>33.21</v>
       </c>
       <c r="K7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D8">
         <v>68.11</v>
       </c>
       <c r="E8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
       </c>
       <c r="H8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" t="s">
         <v>234</v>
-      </c>
-      <c r="I8" t="s">
-        <v>235</v>
       </c>
       <c r="J8">
         <v>28.93</v>
       </c>
       <c r="K8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2553,29 +2575,29 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
         <v>49.58</v>
       </c>
       <c r="E9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G9" s="1">
         <v>6</v>
       </c>
       <c r="H9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" t="s">
         <v>236</v>
-      </c>
-      <c r="I9" t="s">
-        <v>237</v>
       </c>
       <c r="J9">
         <v>27.9</v>
       </c>
       <c r="K9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,29 +2607,29 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10">
         <v>44.62</v>
       </c>
       <c r="E10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G10" s="1">
         <v>7</v>
       </c>
       <c r="H10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" t="s">
         <v>238</v>
-      </c>
-      <c r="I10" t="s">
-        <v>239</v>
       </c>
       <c r="J10">
         <v>25.29</v>
       </c>
       <c r="K10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,61 +2639,61 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D11">
         <v>33.89</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G11" s="1">
         <v>8</v>
       </c>
       <c r="H11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" t="s">
         <v>240</v>
-      </c>
-      <c r="I11" t="s">
-        <v>241</v>
       </c>
       <c r="J11">
         <v>20.57</v>
       </c>
       <c r="K11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D12">
         <v>33.56</v>
       </c>
       <c r="E12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G12" s="1">
         <v>9</v>
       </c>
       <c r="H12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" t="s">
         <v>242</v>
-      </c>
-      <c r="I12" t="s">
-        <v>243</v>
       </c>
       <c r="J12">
         <v>16.77</v>
       </c>
       <c r="K12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2681,29 +2703,29 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D13">
         <v>32.33</v>
       </c>
       <c r="E13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G13" s="1">
         <v>10</v>
       </c>
       <c r="H13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" t="s">
         <v>244</v>
-      </c>
-      <c r="I13" t="s">
-        <v>245</v>
       </c>
       <c r="J13">
         <v>15.19</v>
       </c>
       <c r="K13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,29 +2735,29 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D14">
         <v>26.66</v>
       </c>
       <c r="E14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G14" s="1">
         <v>11</v>
       </c>
       <c r="H14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" t="s">
         <v>246</v>
-      </c>
-      <c r="I14" t="s">
-        <v>247</v>
       </c>
       <c r="J14">
         <v>14.52</v>
       </c>
       <c r="K14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,29 +2767,29 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D15">
         <v>23.94</v>
       </c>
       <c r="E15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G15" s="1">
         <v>12</v>
       </c>
       <c r="H15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" t="s">
         <v>248</v>
-      </c>
-      <c r="I15" t="s">
-        <v>249</v>
       </c>
       <c r="J15">
         <v>14.39</v>
       </c>
       <c r="K15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2777,29 +2799,29 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D16">
         <v>23.07</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G16" s="1">
         <v>13</v>
       </c>
       <c r="H16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" t="s">
         <v>250</v>
-      </c>
-      <c r="I16" t="s">
-        <v>251</v>
       </c>
       <c r="J16">
         <v>14.04</v>
       </c>
       <c r="K16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2809,61 +2831,61 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D17">
         <v>21.55</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G17" s="1">
         <v>14</v>
       </c>
       <c r="H17" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" t="s">
         <v>252</v>
-      </c>
-      <c r="I17" t="s">
-        <v>253</v>
       </c>
       <c r="J17">
         <v>13.65</v>
       </c>
       <c r="K17" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D18">
         <v>20.74</v>
       </c>
       <c r="E18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G18" s="1">
         <v>15</v>
       </c>
       <c r="H18" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" t="s">
         <v>254</v>
-      </c>
-      <c r="I18" t="s">
-        <v>255</v>
       </c>
       <c r="J18">
         <v>13.25</v>
       </c>
       <c r="K18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2873,29 +2895,29 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D19">
         <v>19.23</v>
       </c>
       <c r="E19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G19" s="1">
         <v>16</v>
       </c>
       <c r="H19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" t="s">
         <v>256</v>
-      </c>
-      <c r="I19" t="s">
-        <v>257</v>
       </c>
       <c r="J19">
         <v>12.54</v>
       </c>
       <c r="K19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2905,29 +2927,29 @@
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D20">
         <v>18.3</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G20" s="1">
         <v>17</v>
       </c>
       <c r="H20" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" t="s">
         <v>258</v>
-      </c>
-      <c r="I20" t="s">
-        <v>259</v>
       </c>
       <c r="J20">
         <v>12.22</v>
       </c>
       <c r="K20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2937,29 +2959,29 @@
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D21">
         <v>15.47</v>
       </c>
       <c r="E21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G21" s="1">
         <v>18</v>
       </c>
       <c r="H21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" t="s">
         <v>260</v>
-      </c>
-      <c r="I21" t="s">
-        <v>261</v>
       </c>
       <c r="J21">
         <v>11.76</v>
       </c>
       <c r="K21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2969,29 +2991,29 @@
       <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D22">
         <v>14.94</v>
       </c>
       <c r="E22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G22" s="1">
         <v>19</v>
       </c>
       <c r="H22" t="s">
+        <v>261</v>
+      </c>
+      <c r="I22" t="s">
         <v>262</v>
-      </c>
-      <c r="I22" t="s">
-        <v>263</v>
       </c>
       <c r="J22">
         <v>11.69</v>
       </c>
       <c r="K22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3001,125 +3023,125 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D23">
         <v>14.86</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G23" s="1">
         <v>20</v>
       </c>
       <c r="H23" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23" t="s">
         <v>264</v>
-      </c>
-      <c r="I23" t="s">
-        <v>265</v>
       </c>
       <c r="J23">
         <v>11.18</v>
       </c>
       <c r="K23" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D24">
         <v>14.79</v>
       </c>
       <c r="E24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G24" s="1">
         <v>21</v>
       </c>
       <c r="H24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" t="s">
         <v>266</v>
-      </c>
-      <c r="I24" t="s">
-        <v>267</v>
       </c>
       <c r="J24">
         <v>10.51</v>
       </c>
       <c r="K24" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D25">
         <v>12.86</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G25" s="1">
         <v>22</v>
       </c>
       <c r="H25" t="s">
+        <v>267</v>
+      </c>
+      <c r="I25" t="s">
         <v>268</v>
-      </c>
-      <c r="I25" t="s">
-        <v>269</v>
       </c>
       <c r="J25">
         <v>9.77</v>
       </c>
       <c r="K25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D26">
         <v>12.67</v>
       </c>
       <c r="E26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G26" s="1">
         <v>23</v>
       </c>
       <c r="H26" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" t="s">
         <v>270</v>
-      </c>
-      <c r="I26" t="s">
-        <v>271</v>
       </c>
       <c r="J26">
         <v>9.09</v>
       </c>
       <c r="K26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3129,29 +3151,29 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D27">
         <v>12.27</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G27" s="1">
         <v>24</v>
       </c>
       <c r="H27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" t="s">
         <v>272</v>
-      </c>
-      <c r="I27" t="s">
-        <v>273</v>
       </c>
       <c r="J27">
         <v>8.18</v>
       </c>
       <c r="K27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3161,29 +3183,29 @@
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D28">
         <v>11.65</v>
       </c>
       <c r="E28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G28" s="1">
         <v>25</v>
       </c>
       <c r="H28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" t="s">
         <v>274</v>
-      </c>
-      <c r="I28" t="s">
-        <v>275</v>
       </c>
       <c r="J28">
         <v>7.88</v>
       </c>
       <c r="K28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3193,29 +3215,29 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D29">
         <v>11.52</v>
       </c>
       <c r="E29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G29" s="1">
         <v>26</v>
       </c>
       <c r="H29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I29" t="s">
         <v>276</v>
-      </c>
-      <c r="I29" t="s">
-        <v>277</v>
       </c>
       <c r="J29">
         <v>7.84</v>
       </c>
       <c r="K29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3225,23 +3247,23 @@
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D30">
         <v>11.29</v>
       </c>
       <c r="E30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G30" s="1">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J30">
         <v>7.43</v>
@@ -3250,36 +3272,36 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D31">
         <v>9.39</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G31" s="1">
         <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J31">
         <v>7.43</v>
       </c>
       <c r="K31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3289,8 +3311,8 @@
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
-        <v>63</v>
+      <c r="C32" s="10" t="s">
+        <v>635</v>
       </c>
       <c r="D32">
         <v>9.1199999999999992</v>
@@ -3300,48 +3322,48 @@
         <v>29</v>
       </c>
       <c r="H32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" t="s">
         <v>282</v>
-      </c>
-      <c r="I32" t="s">
-        <v>283</v>
       </c>
       <c r="J32">
         <v>7.06</v>
       </c>
       <c r="K32" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
       </c>
       <c r="D33">
         <v>6.76</v>
       </c>
       <c r="E33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G33" s="1">
         <v>30</v>
       </c>
       <c r="H33" t="s">
+        <v>283</v>
+      </c>
+      <c r="I33" t="s">
         <v>284</v>
-      </c>
-      <c r="I33" t="s">
-        <v>285</v>
       </c>
       <c r="J33">
         <v>6.97</v>
       </c>
       <c r="K33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3349,63 +3371,63 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
       </c>
       <c r="D34">
         <v>5.9</v>
       </c>
       <c r="E34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G34" s="1">
         <v>31</v>
       </c>
       <c r="H34" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" t="s">
         <v>286</v>
-      </c>
-      <c r="I34" t="s">
-        <v>287</v>
       </c>
       <c r="J34">
         <v>6.81</v>
       </c>
       <c r="K34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
       </c>
       <c r="D35">
         <v>5.84</v>
       </c>
       <c r="E35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G35" s="1">
         <v>32</v>
       </c>
       <c r="H35" t="s">
+        <v>287</v>
+      </c>
+      <c r="I35" t="s">
         <v>288</v>
-      </c>
-      <c r="I35" t="s">
-        <v>289</v>
       </c>
       <c r="J35">
         <v>6.75</v>
       </c>
       <c r="K35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3413,31 +3435,31 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
       </c>
       <c r="D36">
         <v>5.68</v>
       </c>
       <c r="E36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G36" s="1">
         <v>33</v>
       </c>
       <c r="H36" t="s">
+        <v>289</v>
+      </c>
+      <c r="I36" t="s">
         <v>290</v>
-      </c>
-      <c r="I36" t="s">
-        <v>291</v>
       </c>
       <c r="J36">
         <v>6.73</v>
       </c>
       <c r="K36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3445,95 +3467,95 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
       </c>
       <c r="D37">
         <v>5.6</v>
       </c>
       <c r="E37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G37" s="1">
         <v>34</v>
       </c>
       <c r="H37" t="s">
+        <v>291</v>
+      </c>
+      <c r="I37" t="s">
         <v>292</v>
-      </c>
-      <c r="I37" t="s">
-        <v>293</v>
       </c>
       <c r="J37">
         <v>6.64</v>
       </c>
       <c r="K37" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
       </c>
       <c r="D38">
         <v>5.2</v>
       </c>
       <c r="E38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G38" s="1">
         <v>35</v>
       </c>
       <c r="H38" t="s">
+        <v>293</v>
+      </c>
+      <c r="I38" t="s">
         <v>294</v>
-      </c>
-      <c r="I38" t="s">
-        <v>295</v>
       </c>
       <c r="J38">
         <v>6.54</v>
       </c>
       <c r="K38" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
       </c>
       <c r="D39">
         <v>4.2699999999999996</v>
       </c>
       <c r="E39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G39" s="1">
         <v>36</v>
       </c>
       <c r="H39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I39" t="s">
         <v>296</v>
-      </c>
-      <c r="I39" t="s">
-        <v>297</v>
       </c>
       <c r="J39">
         <v>6.19</v>
       </c>
       <c r="K39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3541,95 +3563,95 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
       </c>
       <c r="D40">
         <v>3.92</v>
       </c>
       <c r="E40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G40" s="1">
         <v>37</v>
       </c>
       <c r="H40" t="s">
+        <v>297</v>
+      </c>
+      <c r="I40" t="s">
         <v>298</v>
-      </c>
-      <c r="I40" t="s">
-        <v>299</v>
       </c>
       <c r="J40">
         <v>6.02</v>
       </c>
       <c r="K40" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
       </c>
       <c r="D41">
         <v>3.91</v>
       </c>
       <c r="E41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G41" s="1">
         <v>38</v>
       </c>
       <c r="H41" t="s">
+        <v>299</v>
+      </c>
+      <c r="I41" t="s">
         <v>300</v>
-      </c>
-      <c r="I41" t="s">
-        <v>301</v>
       </c>
       <c r="J41">
         <v>5.7</v>
       </c>
       <c r="K41" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
       </c>
       <c r="D42">
         <v>3.66</v>
       </c>
       <c r="E42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G42" s="1">
         <v>39</v>
       </c>
       <c r="H42" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" t="s">
         <v>302</v>
-      </c>
-      <c r="I42" t="s">
-        <v>303</v>
       </c>
       <c r="J42">
         <v>5.29</v>
       </c>
       <c r="K42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3637,31 +3659,31 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
       </c>
       <c r="D43">
         <v>3.63</v>
       </c>
       <c r="E43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G43" s="1">
         <v>40</v>
       </c>
       <c r="H43" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" t="s">
         <v>304</v>
-      </c>
-      <c r="I43" t="s">
-        <v>305</v>
       </c>
       <c r="J43">
         <v>5.16</v>
       </c>
       <c r="K43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3669,31 +3691,31 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
       </c>
       <c r="D44">
         <v>3.6</v>
       </c>
       <c r="E44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G44" s="1">
         <v>41</v>
       </c>
       <c r="H44" t="s">
+        <v>305</v>
+      </c>
+      <c r="I44" t="s">
         <v>306</v>
-      </c>
-      <c r="I44" t="s">
-        <v>307</v>
       </c>
       <c r="J44">
         <v>5.03</v>
       </c>
       <c r="K44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3701,170 +3723,170 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
       </c>
       <c r="D45">
         <v>3.42</v>
       </c>
       <c r="E45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G45" s="1">
         <v>42</v>
       </c>
       <c r="H45" t="s">
+        <v>307</v>
+      </c>
+      <c r="I45" t="s">
         <v>308</v>
-      </c>
-      <c r="I45" t="s">
-        <v>309</v>
       </c>
       <c r="J45">
         <v>4.8099999999999996</v>
       </c>
       <c r="K45" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
         <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
       </c>
       <c r="D46">
         <v>2.89</v>
       </c>
       <c r="E46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G46" s="1">
         <v>43</v>
       </c>
       <c r="H46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I46" t="s">
         <v>310</v>
-      </c>
-      <c r="I46" t="s">
-        <v>311</v>
       </c>
       <c r="J46">
         <v>4.8099999999999996</v>
       </c>
       <c r="K46" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
         <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
       </c>
       <c r="D47">
         <v>2.66</v>
       </c>
       <c r="E47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G47" s="1">
         <v>44</v>
       </c>
       <c r="H47" t="s">
+        <v>311</v>
+      </c>
+      <c r="I47" t="s">
         <v>312</v>
-      </c>
-      <c r="I47" t="s">
-        <v>313</v>
       </c>
       <c r="J47">
         <v>4.54</v>
       </c>
       <c r="K47" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
         <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
       </c>
       <c r="D48">
         <v>2.64</v>
       </c>
       <c r="E48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G48" s="1">
         <v>45</v>
       </c>
       <c r="H48" t="s">
+        <v>313</v>
+      </c>
+      <c r="I48" t="s">
         <v>314</v>
-      </c>
-      <c r="I48" t="s">
-        <v>315</v>
       </c>
       <c r="J48">
         <v>4.51</v>
       </c>
       <c r="K48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
         <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
       </c>
       <c r="D49">
         <v>2.56</v>
       </c>
       <c r="E49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G49" s="1">
         <v>46</v>
       </c>
       <c r="H49" t="s">
+        <v>315</v>
+      </c>
+      <c r="I49" t="s">
         <v>316</v>
-      </c>
-      <c r="I49" t="s">
-        <v>317</v>
       </c>
       <c r="J49">
         <v>4.1900000000000004</v>
       </c>
       <c r="K49" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
         <v>98</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
       </c>
       <c r="D50">
         <v>2.37</v>
@@ -3874,213 +3896,213 @@
         <v>47</v>
       </c>
       <c r="H50" t="s">
+        <v>317</v>
+      </c>
+      <c r="I50" t="s">
         <v>318</v>
-      </c>
-      <c r="I50" t="s">
-        <v>319</v>
       </c>
       <c r="J50">
         <v>4.12</v>
       </c>
       <c r="K50" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>1.76</v>
       </c>
       <c r="E51" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="G51" s="1">
         <v>48</v>
       </c>
       <c r="H51" t="s">
+        <v>319</v>
+      </c>
+      <c r="I51" t="s">
         <v>320</v>
-      </c>
-      <c r="I51" t="s">
-        <v>321</v>
       </c>
       <c r="J51">
         <v>4.08</v>
       </c>
       <c r="K51" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>1.76</v>
       </c>
       <c r="E52" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="G52" s="1">
         <v>49</v>
       </c>
       <c r="H52" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" t="s">
         <v>322</v>
-      </c>
-      <c r="I52" t="s">
-        <v>323</v>
       </c>
       <c r="J52">
         <v>4.0199999999999996</v>
       </c>
       <c r="K52" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
         <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
       </c>
       <c r="D53">
         <v>1.75</v>
       </c>
       <c r="E53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G53" s="1">
         <v>50</v>
       </c>
       <c r="H53" t="s">
+        <v>323</v>
+      </c>
+      <c r="I53" t="s">
         <v>324</v>
-      </c>
-      <c r="I53" t="s">
-        <v>325</v>
       </c>
       <c r="J53">
         <v>3.87</v>
       </c>
       <c r="K53" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
         <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
       </c>
       <c r="D54">
         <v>1.65</v>
       </c>
       <c r="E54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G54" s="1">
         <v>51</v>
       </c>
       <c r="H54" t="s">
+        <v>325</v>
+      </c>
+      <c r="I54" t="s">
         <v>326</v>
-      </c>
-      <c r="I54" t="s">
-        <v>327</v>
       </c>
       <c r="J54">
         <v>3.76</v>
       </c>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D55">
         <v>1.51</v>
       </c>
-      <c r="E55"/>
+      <c r="E55" t="s">
+        <v>535</v>
+      </c>
       <c r="G55" s="1">
         <v>52</v>
       </c>
       <c r="H55" t="s">
+        <v>327</v>
+      </c>
+      <c r="I55" t="s">
         <v>328</v>
-      </c>
-      <c r="I55" t="s">
-        <v>329</v>
       </c>
       <c r="J55">
         <v>3.54</v>
       </c>
       <c r="K55" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D56">
         <v>1.51</v>
       </c>
-      <c r="E56" t="s">
-        <v>536</v>
-      </c>
+      <c r="E56"/>
       <c r="G56" s="1">
         <v>53</v>
       </c>
       <c r="H56" t="s">
+        <v>329</v>
+      </c>
+      <c r="I56" t="s">
         <v>330</v>
-      </c>
-      <c r="I56" t="s">
-        <v>331</v>
       </c>
       <c r="J56">
         <v>3.5</v>
       </c>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
         <v>112</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
       </c>
       <c r="D57">
         <v>1.45</v>
@@ -4090,215 +4112,215 @@
         <v>54</v>
       </c>
       <c r="H57" t="s">
+        <v>331</v>
+      </c>
+      <c r="I57" t="s">
         <v>332</v>
-      </c>
-      <c r="I57" t="s">
-        <v>333</v>
       </c>
       <c r="J57">
         <v>3.46</v>
       </c>
       <c r="K57" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
         <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>115</v>
       </c>
       <c r="D58">
         <v>1.24</v>
       </c>
       <c r="E58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G58" s="1">
         <v>55</v>
       </c>
       <c r="H58" t="s">
+        <v>333</v>
+      </c>
+      <c r="I58" t="s">
         <v>334</v>
-      </c>
-      <c r="I58" t="s">
-        <v>335</v>
       </c>
       <c r="J58">
         <v>3.41</v>
       </c>
       <c r="K58" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
         <v>116</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
       </c>
       <c r="D59">
         <v>1.22</v>
       </c>
       <c r="E59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G59" s="1">
         <v>56</v>
       </c>
       <c r="H59" t="s">
+        <v>335</v>
+      </c>
+      <c r="I59" t="s">
         <v>336</v>
-      </c>
-      <c r="I59" t="s">
-        <v>337</v>
       </c>
       <c r="J59">
         <v>3.38</v>
       </c>
       <c r="K59" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
         <v>118</v>
-      </c>
-      <c r="C60" t="s">
-        <v>119</v>
       </c>
       <c r="D60">
         <v>1.17</v>
       </c>
       <c r="E60" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G60" s="1">
         <v>57</v>
       </c>
       <c r="H60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I60" t="s">
         <v>338</v>
-      </c>
-      <c r="I60" t="s">
-        <v>339</v>
       </c>
       <c r="J60">
         <v>3.14</v>
       </c>
       <c r="K60" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
         <v>120</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
       </c>
       <c r="D61">
         <v>1.1100000000000001</v>
       </c>
       <c r="E61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G61" s="1">
         <v>58</v>
       </c>
       <c r="H61" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61" t="s">
         <v>340</v>
-      </c>
-      <c r="I61" t="s">
-        <v>341</v>
       </c>
       <c r="J61">
         <v>2.93</v>
       </c>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
         <v>122</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
       </c>
       <c r="D62">
         <v>1.0900000000000001</v>
       </c>
       <c r="E62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G62" s="1">
         <v>59</v>
       </c>
       <c r="H62" t="s">
+        <v>341</v>
+      </c>
+      <c r="I62" t="s">
         <v>342</v>
-      </c>
-      <c r="I62" t="s">
-        <v>343</v>
       </c>
       <c r="J62">
         <v>2.84</v>
       </c>
       <c r="K62" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
         <v>124</v>
-      </c>
-      <c r="C63" t="s">
-        <v>125</v>
       </c>
       <c r="D63">
         <v>1.03</v>
       </c>
       <c r="E63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G63" s="1">
         <v>60</v>
       </c>
       <c r="H63" t="s">
+        <v>343</v>
+      </c>
+      <c r="I63" t="s">
         <v>344</v>
-      </c>
-      <c r="I63" t="s">
-        <v>345</v>
       </c>
       <c r="J63">
         <v>2.75</v>
       </c>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
         <v>126</v>
-      </c>
-      <c r="C64" t="s">
-        <v>127</v>
       </c>
       <c r="D64">
         <v>0.97</v>
@@ -4308,59 +4330,59 @@
         <v>61</v>
       </c>
       <c r="H64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" t="s">
         <v>346</v>
-      </c>
-      <c r="I64" t="s">
-        <v>347</v>
       </c>
       <c r="J64">
         <v>2.75</v>
       </c>
       <c r="K64" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>129</v>
       </c>
       <c r="D65">
         <v>0.95</v>
       </c>
       <c r="E65" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G65" s="1">
         <v>62</v>
       </c>
       <c r="H65" t="s">
+        <v>347</v>
+      </c>
+      <c r="I65" t="s">
         <v>348</v>
-      </c>
-      <c r="I65" t="s">
-        <v>349</v>
       </c>
       <c r="J65">
         <v>2.4500000000000002</v>
       </c>
       <c r="K65" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
         <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
       </c>
       <c r="D66">
         <v>0.69</v>
@@ -4370,27 +4392,27 @@
         <v>63</v>
       </c>
       <c r="H66" t="s">
+        <v>349</v>
+      </c>
+      <c r="I66" t="s">
         <v>350</v>
-      </c>
-      <c r="I66" t="s">
-        <v>351</v>
       </c>
       <c r="J66">
         <v>2.38</v>
       </c>
       <c r="K66" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
         <v>132</v>
-      </c>
-      <c r="C67" t="s">
-        <v>133</v>
       </c>
       <c r="D67">
         <v>0.61</v>
@@ -4400,183 +4422,183 @@
         <v>64</v>
       </c>
       <c r="H67" t="s">
+        <v>351</v>
+      </c>
+      <c r="I67" t="s">
         <v>352</v>
-      </c>
-      <c r="I67" t="s">
-        <v>353</v>
       </c>
       <c r="J67">
         <v>2.34</v>
       </c>
       <c r="K67" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
         <v>134</v>
-      </c>
-      <c r="C68" t="s">
-        <v>135</v>
       </c>
       <c r="D68">
         <v>0.57999999999999996</v>
       </c>
       <c r="E68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G68" s="1">
         <v>65</v>
       </c>
       <c r="H68" t="s">
+        <v>353</v>
+      </c>
+      <c r="I68" t="s">
         <v>354</v>
-      </c>
-      <c r="I68" t="s">
-        <v>355</v>
       </c>
       <c r="J68">
         <v>2.33</v>
       </c>
       <c r="K68" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
         <v>136</v>
-      </c>
-      <c r="C69" t="s">
-        <v>137</v>
       </c>
       <c r="D69">
         <v>0.56999999999999995</v>
       </c>
       <c r="E69" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G69" s="1">
         <v>66</v>
       </c>
       <c r="H69" t="s">
+        <v>355</v>
+      </c>
+      <c r="I69" t="s">
         <v>356</v>
-      </c>
-      <c r="I69" t="s">
-        <v>357</v>
       </c>
       <c r="J69">
         <v>2.27</v>
       </c>
       <c r="K69" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>67</v>
       </c>
       <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
         <v>138</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
       </c>
       <c r="D70">
         <v>0.56000000000000005</v>
       </c>
       <c r="E70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G70" s="1">
         <v>67</v>
       </c>
       <c r="H70" t="s">
+        <v>357</v>
+      </c>
+      <c r="I70" t="s">
         <v>358</v>
-      </c>
-      <c r="I70" t="s">
-        <v>359</v>
       </c>
       <c r="J70">
         <v>2.2599999999999998</v>
       </c>
       <c r="K70" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
         <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
       </c>
       <c r="D71">
         <v>0.55000000000000004</v>
       </c>
       <c r="E71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G71" s="1">
         <v>68</v>
       </c>
       <c r="H71" t="s">
+        <v>359</v>
+      </c>
+      <c r="I71" t="s">
         <v>360</v>
-      </c>
-      <c r="I71" t="s">
-        <v>361</v>
       </c>
       <c r="J71">
         <v>2.11</v>
       </c>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>69</v>
       </c>
       <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
         <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>143</v>
       </c>
       <c r="D72">
         <v>0.54</v>
       </c>
       <c r="E72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G72" s="1">
         <v>69</v>
       </c>
       <c r="H72" t="s">
+        <v>361</v>
+      </c>
+      <c r="I72" t="s">
         <v>362</v>
-      </c>
-      <c r="I72" t="s">
-        <v>363</v>
       </c>
       <c r="J72">
         <v>1.97</v>
       </c>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70</v>
       </c>
       <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
         <v>144</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
       </c>
       <c r="D73">
         <v>0.5</v>
@@ -4586,185 +4608,185 @@
         <v>70</v>
       </c>
       <c r="H73" t="s">
+        <v>363</v>
+      </c>
+      <c r="I73" t="s">
         <v>364</v>
-      </c>
-      <c r="I73" t="s">
-        <v>365</v>
       </c>
       <c r="J73">
         <v>1.95</v>
       </c>
       <c r="K73" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
         <v>146</v>
-      </c>
-      <c r="C74" t="s">
-        <v>147</v>
       </c>
       <c r="D74">
         <v>0.48</v>
       </c>
       <c r="E74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G74" s="1">
         <v>71</v>
       </c>
       <c r="H74" t="s">
+        <v>365</v>
+      </c>
+      <c r="I74" t="s">
         <v>366</v>
-      </c>
-      <c r="I74" t="s">
-        <v>367</v>
       </c>
       <c r="J74">
         <v>1.87</v>
       </c>
       <c r="K74" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>72</v>
       </c>
       <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
         <v>148</v>
-      </c>
-      <c r="C75" t="s">
-        <v>149</v>
       </c>
       <c r="D75">
         <v>0.47</v>
       </c>
       <c r="E75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G75" s="1">
         <v>72</v>
       </c>
       <c r="H75" t="s">
+        <v>367</v>
+      </c>
+      <c r="I75" t="s">
         <v>368</v>
-      </c>
-      <c r="I75" t="s">
-        <v>369</v>
       </c>
       <c r="J75">
         <v>1.87</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
         <v>150</v>
-      </c>
-      <c r="C76" t="s">
-        <v>151</v>
       </c>
       <c r="D76">
         <v>0.45</v>
       </c>
       <c r="E76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G76" s="1">
         <v>73</v>
       </c>
       <c r="H76" t="s">
+        <v>369</v>
+      </c>
+      <c r="I76" t="s">
         <v>370</v>
-      </c>
-      <c r="I76" t="s">
-        <v>371</v>
       </c>
       <c r="J76">
         <v>1.79</v>
       </c>
       <c r="K76" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" t="s">
         <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>153</v>
       </c>
       <c r="D77">
         <v>0.41</v>
       </c>
       <c r="E77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G77" s="1">
         <v>74</v>
       </c>
       <c r="H77" t="s">
+        <v>371</v>
+      </c>
+      <c r="I77" t="s">
         <v>372</v>
-      </c>
-      <c r="I77" t="s">
-        <v>373</v>
       </c>
       <c r="J77">
         <v>1.78</v>
       </c>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
         <v>154</v>
-      </c>
-      <c r="C78" t="s">
-        <v>155</v>
       </c>
       <c r="D78">
         <v>0.41</v>
       </c>
       <c r="E78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G78" s="1">
         <v>75</v>
       </c>
       <c r="H78" t="s">
+        <v>373</v>
+      </c>
+      <c r="I78" t="s">
         <v>374</v>
-      </c>
-      <c r="I78" t="s">
-        <v>375</v>
       </c>
       <c r="J78">
         <v>1.75</v>
       </c>
       <c r="K78" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>76</v>
       </c>
       <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
         <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>157</v>
       </c>
       <c r="D79">
         <v>0.36</v>
@@ -4774,119 +4796,119 @@
         <v>76</v>
       </c>
       <c r="H79" t="s">
+        <v>375</v>
+      </c>
+      <c r="I79" t="s">
         <v>376</v>
-      </c>
-      <c r="I79" t="s">
-        <v>377</v>
       </c>
       <c r="J79">
         <v>1.73</v>
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>77</v>
       </c>
       <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
         <v>158</v>
-      </c>
-      <c r="C80" t="s">
-        <v>159</v>
       </c>
       <c r="D80">
         <v>0.35</v>
       </c>
       <c r="E80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G80" s="1">
         <v>77</v>
       </c>
       <c r="H80" t="s">
+        <v>377</v>
+      </c>
+      <c r="I80" t="s">
         <v>378</v>
-      </c>
-      <c r="I80" t="s">
-        <v>379</v>
       </c>
       <c r="J80">
         <v>1.7</v>
       </c>
       <c r="K80"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>78</v>
       </c>
       <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
         <v>160</v>
-      </c>
-      <c r="C81" t="s">
-        <v>161</v>
       </c>
       <c r="D81">
         <v>0.34</v>
       </c>
       <c r="E81" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G81" s="1">
         <v>78</v>
       </c>
       <c r="H81" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" t="s">
         <v>380</v>
-      </c>
-      <c r="I81" t="s">
-        <v>381</v>
       </c>
       <c r="J81">
         <v>1.59</v>
       </c>
       <c r="K81" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
         <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>163</v>
       </c>
       <c r="D82">
         <v>0.33</v>
       </c>
       <c r="E82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G82" s="1">
         <v>79</v>
       </c>
       <c r="H82" t="s">
+        <v>381</v>
+      </c>
+      <c r="I82" t="s">
         <v>382</v>
-      </c>
-      <c r="I82" t="s">
-        <v>383</v>
       </c>
       <c r="J82">
         <v>1.57</v>
       </c>
       <c r="K82" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>80</v>
       </c>
       <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
         <v>164</v>
-      </c>
-      <c r="C83" t="s">
-        <v>165</v>
       </c>
       <c r="D83">
         <v>0.33</v>
@@ -4896,59 +4918,59 @@
         <v>80</v>
       </c>
       <c r="H83" t="s">
+        <v>383</v>
+      </c>
+      <c r="I83" t="s">
         <v>384</v>
-      </c>
-      <c r="I83" t="s">
-        <v>385</v>
       </c>
       <c r="J83">
         <v>1.57</v>
       </c>
       <c r="K83" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>81</v>
       </c>
       <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
         <v>166</v>
-      </c>
-      <c r="C84" t="s">
-        <v>167</v>
       </c>
       <c r="D84">
         <v>0.24</v>
       </c>
       <c r="E84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G84" s="1">
         <v>81</v>
       </c>
       <c r="H84" t="s">
+        <v>385</v>
+      </c>
+      <c r="I84" t="s">
         <v>386</v>
-      </c>
-      <c r="I84" t="s">
-        <v>387</v>
       </c>
       <c r="J84">
         <v>1.56</v>
       </c>
       <c r="K84" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>82</v>
       </c>
       <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
         <v>168</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
       </c>
       <c r="D85">
         <v>0.23</v>
@@ -4958,217 +4980,217 @@
         <v>82</v>
       </c>
       <c r="H85" t="s">
+        <v>387</v>
+      </c>
+      <c r="I85" t="s">
         <v>388</v>
-      </c>
-      <c r="I85" t="s">
-        <v>389</v>
       </c>
       <c r="J85">
         <v>1.54</v>
       </c>
       <c r="K85" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>83</v>
       </c>
       <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
         <v>170</v>
-      </c>
-      <c r="C86" t="s">
-        <v>171</v>
       </c>
       <c r="D86">
         <v>0.2</v>
       </c>
       <c r="E86" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G86" s="1">
         <v>83</v>
       </c>
       <c r="H86" t="s">
+        <v>389</v>
+      </c>
+      <c r="I86" t="s">
         <v>390</v>
-      </c>
-      <c r="I86" t="s">
-        <v>391</v>
       </c>
       <c r="J86">
         <v>1.48</v>
       </c>
       <c r="K86" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>84</v>
       </c>
       <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
         <v>172</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
       </c>
       <c r="D87">
         <v>0.18</v>
       </c>
       <c r="E87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G87" s="1">
         <v>84</v>
       </c>
       <c r="H87" t="s">
+        <v>391</v>
+      </c>
+      <c r="I87" t="s">
         <v>392</v>
-      </c>
-      <c r="I87" t="s">
-        <v>393</v>
       </c>
       <c r="J87">
         <v>1.35</v>
       </c>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>85</v>
       </c>
       <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
         <v>174</v>
-      </c>
-      <c r="C88" t="s">
-        <v>175</v>
       </c>
       <c r="D88">
         <v>0.18</v>
       </c>
       <c r="E88" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G88" s="1">
         <v>85</v>
       </c>
       <c r="H88" t="s">
+        <v>393</v>
+      </c>
+      <c r="I88" t="s">
         <v>394</v>
-      </c>
-      <c r="I88" t="s">
-        <v>395</v>
       </c>
       <c r="J88">
         <v>1.31</v>
       </c>
       <c r="K88" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>86</v>
       </c>
       <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
         <v>176</v>
-      </c>
-      <c r="C89" t="s">
-        <v>177</v>
       </c>
       <c r="D89">
         <v>0.16</v>
       </c>
       <c r="E89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G89" s="1">
         <v>86</v>
       </c>
       <c r="H89" t="s">
+        <v>395</v>
+      </c>
+      <c r="I89" t="s">
         <v>396</v>
-      </c>
-      <c r="I89" t="s">
-        <v>397</v>
       </c>
       <c r="J89">
         <v>1.29</v>
       </c>
       <c r="K89" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>87</v>
       </c>
       <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
         <v>178</v>
-      </c>
-      <c r="C90" t="s">
-        <v>179</v>
       </c>
       <c r="D90">
         <v>0.15</v>
       </c>
       <c r="E90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G90" s="1">
         <v>87</v>
       </c>
       <c r="H90" t="s">
+        <v>397</v>
+      </c>
+      <c r="I90" t="s">
         <v>398</v>
-      </c>
-      <c r="I90" t="s">
-        <v>399</v>
       </c>
       <c r="J90">
         <v>1.27</v>
       </c>
       <c r="K90" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>88</v>
       </c>
       <c r="B91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" t="s">
         <v>180</v>
-      </c>
-      <c r="C91" t="s">
-        <v>181</v>
       </c>
       <c r="D91">
         <v>0.14000000000000001</v>
       </c>
       <c r="E91" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G91" s="1">
         <v>88</v>
       </c>
       <c r="H91" t="s">
+        <v>399</v>
+      </c>
+      <c r="I91" t="s">
         <v>400</v>
-      </c>
-      <c r="I91" t="s">
-        <v>401</v>
       </c>
       <c r="J91">
         <v>1.05</v>
       </c>
       <c r="K91" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>89</v>
       </c>
       <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
         <v>182</v>
-      </c>
-      <c r="C92" t="s">
-        <v>183</v>
       </c>
       <c r="D92">
         <v>0.12</v>
@@ -5178,91 +5200,91 @@
         <v>89</v>
       </c>
       <c r="H92" t="s">
+        <v>401</v>
+      </c>
+      <c r="I92" t="s">
         <v>402</v>
-      </c>
-      <c r="I92" t="s">
-        <v>403</v>
       </c>
       <c r="J92">
         <v>1.04</v>
       </c>
       <c r="K92" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>90</v>
       </c>
       <c r="B93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
         <v>184</v>
-      </c>
-      <c r="C93" t="s">
-        <v>185</v>
       </c>
       <c r="D93">
         <v>0.12</v>
       </c>
       <c r="E93" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G93" s="1">
         <v>90</v>
       </c>
       <c r="H93" t="s">
+        <v>403</v>
+      </c>
+      <c r="I93" t="s">
         <v>404</v>
-      </c>
-      <c r="I93" t="s">
-        <v>405</v>
       </c>
       <c r="J93">
         <v>1.04</v>
       </c>
       <c r="K93" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>91</v>
       </c>
       <c r="B94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" t="s">
         <v>186</v>
-      </c>
-      <c r="C94" t="s">
-        <v>187</v>
       </c>
       <c r="D94">
         <v>0.11</v>
       </c>
       <c r="E94" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G94" s="1">
         <v>91</v>
       </c>
       <c r="H94" t="s">
+        <v>405</v>
+      </c>
+      <c r="I94" t="s">
         <v>406</v>
-      </c>
-      <c r="I94" t="s">
-        <v>407</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>92</v>
       </c>
       <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
         <v>188</v>
-      </c>
-      <c r="C95" t="s">
-        <v>189</v>
       </c>
       <c r="D95">
         <v>0.1</v>
@@ -5272,249 +5294,249 @@
         <v>92</v>
       </c>
       <c r="H95" t="s">
+        <v>407</v>
+      </c>
+      <c r="I95" t="s">
         <v>408</v>
-      </c>
-      <c r="I95" t="s">
-        <v>409</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>93</v>
       </c>
       <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
         <v>190</v>
-      </c>
-      <c r="C96" t="s">
-        <v>191</v>
       </c>
       <c r="D96">
         <v>0.1</v>
       </c>
       <c r="E96" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G96" s="1">
         <v>93</v>
       </c>
       <c r="H96" t="s">
+        <v>409</v>
+      </c>
+      <c r="I96" t="s">
         <v>410</v>
-      </c>
-      <c r="I96" t="s">
-        <v>411</v>
       </c>
       <c r="J96">
         <v>0.98</v>
       </c>
       <c r="K96" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>94</v>
       </c>
       <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
         <v>192</v>
-      </c>
-      <c r="C97" t="s">
-        <v>193</v>
       </c>
       <c r="D97">
         <v>0.08</v>
       </c>
       <c r="E97" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G97" s="1">
         <v>94</v>
       </c>
       <c r="H97" t="s">
+        <v>411</v>
+      </c>
+      <c r="I97" t="s">
         <v>412</v>
-      </c>
-      <c r="I97" t="s">
-        <v>413</v>
       </c>
       <c r="J97">
         <v>0.87</v>
       </c>
       <c r="K97" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>95</v>
       </c>
       <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
         <v>194</v>
-      </c>
-      <c r="C98" t="s">
-        <v>195</v>
       </c>
       <c r="D98">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E98" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G98" s="1">
         <v>95</v>
       </c>
       <c r="H98" t="s">
+        <v>413</v>
+      </c>
+      <c r="I98" t="s">
         <v>414</v>
-      </c>
-      <c r="I98" t="s">
-        <v>415</v>
       </c>
       <c r="J98">
         <v>0.86</v>
       </c>
       <c r="K98" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>96</v>
       </c>
       <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
         <v>196</v>
-      </c>
-      <c r="C99" t="s">
-        <v>197</v>
       </c>
       <c r="D99">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G99" s="1">
         <v>96</v>
       </c>
       <c r="H99" t="s">
+        <v>415</v>
+      </c>
+      <c r="I99" t="s">
         <v>416</v>
-      </c>
-      <c r="I99" t="s">
-        <v>417</v>
       </c>
       <c r="J99">
         <v>0.79</v>
       </c>
       <c r="K99" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>97</v>
       </c>
       <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
         <v>198</v>
-      </c>
-      <c r="C100" t="s">
-        <v>199</v>
       </c>
       <c r="D100">
         <v>0.04</v>
       </c>
       <c r="E100" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G100" s="1">
         <v>97</v>
       </c>
       <c r="H100" t="s">
+        <v>417</v>
+      </c>
+      <c r="I100" t="s">
         <v>418</v>
-      </c>
-      <c r="I100" t="s">
-        <v>419</v>
       </c>
       <c r="J100">
         <v>0.73</v>
       </c>
       <c r="K100" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>98</v>
       </c>
       <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
         <v>200</v>
-      </c>
-      <c r="C101" t="s">
-        <v>201</v>
       </c>
       <c r="D101">
         <v>0.04</v>
       </c>
       <c r="E101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G101" s="1">
         <v>98</v>
       </c>
       <c r="H101" t="s">
+        <v>419</v>
+      </c>
+      <c r="I101" t="s">
         <v>420</v>
-      </c>
-      <c r="I101" t="s">
-        <v>421</v>
       </c>
       <c r="J101">
         <v>0.7</v>
       </c>
       <c r="K101" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>99</v>
       </c>
       <c r="B102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
         <v>202</v>
-      </c>
-      <c r="C102" t="s">
-        <v>203</v>
       </c>
       <c r="D102">
         <v>0.03</v>
       </c>
       <c r="E102" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G102" s="1">
         <v>99</v>
       </c>
       <c r="H102" t="s">
+        <v>421</v>
+      </c>
+      <c r="I102" t="s">
         <v>422</v>
-      </c>
-      <c r="I102" t="s">
-        <v>423</v>
       </c>
       <c r="J102">
         <v>0.57999999999999996</v>
       </c>
       <c r="K102" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>100</v>
       </c>
       <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
         <v>204</v>
-      </c>
-      <c r="C103" t="s">
-        <v>205</v>
       </c>
       <c r="D103">
         <v>0.02</v>
@@ -5524,313 +5546,313 @@
         <v>100</v>
       </c>
       <c r="H103" t="s">
+        <v>423</v>
+      </c>
+      <c r="I103" t="s">
         <v>424</v>
-      </c>
-      <c r="I103" t="s">
-        <v>425</v>
       </c>
       <c r="J103">
         <v>0.55000000000000004</v>
       </c>
       <c r="K103"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>101</v>
       </c>
       <c r="B104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" t="s">
         <v>206</v>
-      </c>
-      <c r="C104" t="s">
-        <v>207</v>
       </c>
       <c r="D104">
         <v>0.02</v>
       </c>
       <c r="E104" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G104" s="1">
         <v>101</v>
       </c>
       <c r="H104" t="s">
+        <v>425</v>
+      </c>
+      <c r="I104" t="s">
         <v>426</v>
-      </c>
-      <c r="I104" t="s">
-        <v>427</v>
       </c>
       <c r="J104">
         <v>0.48</v>
       </c>
       <c r="K104" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>102</v>
       </c>
       <c r="B105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
         <v>208</v>
-      </c>
-      <c r="C105" t="s">
-        <v>209</v>
       </c>
       <c r="D105">
         <v>0.01</v>
       </c>
       <c r="E105" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G105" s="1">
         <v>102</v>
       </c>
       <c r="H105" t="s">
+        <v>427</v>
+      </c>
+      <c r="I105" t="s">
         <v>428</v>
-      </c>
-      <c r="I105" t="s">
-        <v>429</v>
       </c>
       <c r="J105">
         <v>0.46</v>
       </c>
       <c r="K105" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>103</v>
       </c>
       <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
         <v>210</v>
-      </c>
-      <c r="C106" t="s">
-        <v>211</v>
       </c>
       <c r="D106">
         <v>0.01</v>
       </c>
       <c r="E106" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G106" s="1">
         <v>103</v>
       </c>
       <c r="H106" t="s">
+        <v>429</v>
+      </c>
+      <c r="I106" t="s">
         <v>430</v>
-      </c>
-      <c r="I106" t="s">
-        <v>431</v>
       </c>
       <c r="J106">
         <v>0.42</v>
       </c>
       <c r="K106" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>104</v>
       </c>
       <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
         <v>212</v>
-      </c>
-      <c r="C107" t="s">
-        <v>213</v>
       </c>
       <c r="D107">
         <v>0.01</v>
       </c>
       <c r="E107" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G107" s="1">
         <v>104</v>
       </c>
       <c r="H107" t="s">
+        <v>431</v>
+      </c>
+      <c r="I107" t="s">
         <v>432</v>
-      </c>
-      <c r="I107" t="s">
-        <v>433</v>
       </c>
       <c r="J107">
         <v>0.37</v>
       </c>
       <c r="K107" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>105</v>
       </c>
       <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
         <v>214</v>
-      </c>
-      <c r="C108" t="s">
-        <v>215</v>
       </c>
       <c r="D108">
         <v>0.01</v>
       </c>
       <c r="E108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G108" s="1">
         <v>105</v>
       </c>
       <c r="H108" t="s">
+        <v>433</v>
+      </c>
+      <c r="I108" t="s">
         <v>434</v>
-      </c>
-      <c r="I108" t="s">
-        <v>435</v>
       </c>
       <c r="J108">
         <v>0.37</v>
       </c>
       <c r="K108" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>106</v>
       </c>
       <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
         <v>216</v>
-      </c>
-      <c r="C109" t="s">
-        <v>217</v>
       </c>
       <c r="D109">
         <v>0.01</v>
       </c>
       <c r="E109" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G109" s="1">
         <v>106</v>
       </c>
       <c r="H109" t="s">
+        <v>435</v>
+      </c>
+      <c r="I109" t="s">
         <v>436</v>
-      </c>
-      <c r="I109" t="s">
-        <v>437</v>
       </c>
       <c r="J109">
         <v>0.36</v>
       </c>
       <c r="K109" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>107</v>
       </c>
       <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
         <v>218</v>
-      </c>
-      <c r="C110" t="s">
-        <v>219</v>
       </c>
       <c r="D110">
         <v>0.01</v>
       </c>
       <c r="E110" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G110" s="1">
         <v>107</v>
       </c>
       <c r="H110" t="s">
+        <v>437</v>
+      </c>
+      <c r="I110" t="s">
         <v>438</v>
-      </c>
-      <c r="I110" t="s">
-        <v>439</v>
       </c>
       <c r="J110">
         <v>0.33</v>
       </c>
       <c r="K110" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>108</v>
       </c>
       <c r="B111" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" t="s">
         <v>220</v>
-      </c>
-      <c r="C111" t="s">
-        <v>221</v>
       </c>
       <c r="D111">
         <v>0.01</v>
       </c>
       <c r="E111" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G111" s="1">
         <v>108</v>
       </c>
       <c r="H111" t="s">
+        <v>439</v>
+      </c>
+      <c r="I111" t="s">
         <v>440</v>
-      </c>
-      <c r="I111" t="s">
-        <v>441</v>
       </c>
       <c r="J111">
         <v>0.31</v>
       </c>
       <c r="K111" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>109</v>
       </c>
       <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
         <v>222</v>
-      </c>
-      <c r="C112" t="s">
-        <v>223</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G112" s="1">
         <v>109</v>
       </c>
       <c r="H112" t="s">
+        <v>441</v>
+      </c>
+      <c r="I112" t="s">
         <v>442</v>
-      </c>
-      <c r="I112" t="s">
-        <v>443</v>
       </c>
       <c r="J112">
         <v>0.3</v>
       </c>
       <c r="K112" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>110</v>
       </c>
       <c r="B113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" t="s">
         <v>224</v>
-      </c>
-      <c r="C113" t="s">
-        <v>225</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -5838,459 +5860,398 @@
         <v>110</v>
       </c>
       <c r="H113" t="s">
+        <v>443</v>
+      </c>
+      <c r="I113" t="s">
         <v>444</v>
-      </c>
-      <c r="I113" t="s">
-        <v>445</v>
       </c>
       <c r="J113">
         <v>0.25</v>
       </c>
       <c r="K113" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>111</v>
-      </c>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G114" s="1">
         <v>111</v>
       </c>
       <c r="H114" t="s">
+        <v>445</v>
+      </c>
+      <c r="I114" t="s">
         <v>446</v>
-      </c>
-      <c r="I114" t="s">
-        <v>447</v>
       </c>
       <c r="J114">
         <v>0.24</v>
       </c>
       <c r="K114" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>112</v>
-      </c>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G115" s="1">
         <v>112</v>
       </c>
       <c r="H115" t="s">
+        <v>447</v>
+      </c>
+      <c r="I115" t="s">
         <v>448</v>
-      </c>
-      <c r="I115" t="s">
-        <v>449</v>
       </c>
       <c r="J115">
         <v>0.22</v>
       </c>
       <c r="K115" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>113</v>
-      </c>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G116" s="1">
         <v>113</v>
       </c>
       <c r="H116" t="s">
+        <v>449</v>
+      </c>
+      <c r="I116" t="s">
         <v>450</v>
-      </c>
-      <c r="I116" t="s">
-        <v>451</v>
       </c>
       <c r="J116">
         <v>0.2</v>
       </c>
       <c r="K116" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>114</v>
-      </c>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G117" s="1">
         <v>114</v>
       </c>
       <c r="H117" t="s">
+        <v>451</v>
+      </c>
+      <c r="I117" t="s">
         <v>452</v>
-      </c>
-      <c r="I117" t="s">
-        <v>453</v>
       </c>
       <c r="J117">
         <v>0.16</v>
       </c>
       <c r="K117" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>115</v>
-      </c>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G118" s="1">
         <v>115</v>
       </c>
       <c r="H118" t="s">
+        <v>453</v>
+      </c>
+      <c r="I118" t="s">
         <v>454</v>
-      </c>
-      <c r="I118" t="s">
-        <v>455</v>
       </c>
       <c r="J118">
         <v>0.15</v>
       </c>
       <c r="K118" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>116</v>
-      </c>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G119" s="1">
         <v>116</v>
       </c>
       <c r="H119" t="s">
+        <v>455</v>
+      </c>
+      <c r="I119" t="s">
         <v>456</v>
-      </c>
-      <c r="I119" t="s">
-        <v>457</v>
       </c>
       <c r="J119">
         <v>0.13</v>
       </c>
       <c r="K119" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>117</v>
-      </c>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G120" s="1">
         <v>117</v>
       </c>
       <c r="H120" t="s">
+        <v>457</v>
+      </c>
+      <c r="I120" t="s">
         <v>458</v>
-      </c>
-      <c r="I120" t="s">
-        <v>459</v>
       </c>
       <c r="J120">
         <v>0.11</v>
       </c>
       <c r="K120" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>118</v>
-      </c>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G121" s="1">
         <v>118</v>
       </c>
       <c r="H121" t="s">
+        <v>459</v>
+      </c>
+      <c r="I121" t="s">
         <v>460</v>
-      </c>
-      <c r="I121" t="s">
-        <v>461</v>
       </c>
       <c r="J121">
         <v>0.1</v>
       </c>
       <c r="K121" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>119</v>
-      </c>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G122" s="1">
         <v>119</v>
       </c>
       <c r="H122" t="s">
+        <v>461</v>
+      </c>
+      <c r="I122" t="s">
         <v>462</v>
-      </c>
-      <c r="I122" t="s">
-        <v>463</v>
       </c>
       <c r="J122">
         <v>0.09</v>
       </c>
       <c r="K122" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>120</v>
-      </c>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G123" s="1">
         <v>120</v>
       </c>
       <c r="H123" t="s">
+        <v>463</v>
+      </c>
+      <c r="I123" t="s">
         <v>464</v>
-      </c>
-      <c r="I123" t="s">
-        <v>465</v>
       </c>
       <c r="J123">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K123" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>121</v>
-      </c>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G124" s="1">
         <v>121</v>
       </c>
       <c r="H124" t="s">
+        <v>465</v>
+      </c>
+      <c r="I124" t="s">
         <v>466</v>
-      </c>
-      <c r="I124" t="s">
-        <v>467</v>
       </c>
       <c r="J124">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K124" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>122</v>
-      </c>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G125" s="1">
         <v>122</v>
       </c>
       <c r="H125" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I125" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J125">
         <v>0.06</v>
       </c>
       <c r="K125" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>123</v>
-      </c>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G126" s="1">
         <v>123</v>
       </c>
       <c r="H126" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I126" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J126">
         <v>0.06</v>
       </c>
       <c r="K126" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>124</v>
-      </c>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G127" s="1">
         <v>124</v>
       </c>
       <c r="H127" t="s">
+        <v>471</v>
+      </c>
+      <c r="I127" t="s">
         <v>472</v>
-      </c>
-      <c r="I127" t="s">
-        <v>473</v>
       </c>
       <c r="J127">
         <v>0.03</v>
       </c>
       <c r="K127" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>125</v>
-      </c>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G128" s="1">
         <v>125</v>
       </c>
       <c r="H128" t="s">
+        <v>473</v>
+      </c>
+      <c r="I128" t="s">
         <v>474</v>
-      </c>
-      <c r="I128" t="s">
-        <v>475</v>
       </c>
       <c r="J128">
         <v>0.03</v>
       </c>
       <c r="K128" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>126</v>
-      </c>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="129" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G129" s="1">
         <v>126</v>
       </c>
       <c r="H129" t="s">
+        <v>475</v>
+      </c>
+      <c r="I129" t="s">
         <v>476</v>
-      </c>
-      <c r="I129" t="s">
-        <v>477</v>
       </c>
       <c r="J129">
         <v>0.02</v>
       </c>
       <c r="K129" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>127</v>
-      </c>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="130" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G130" s="1">
         <v>127</v>
       </c>
       <c r="H130" t="s">
+        <v>477</v>
+      </c>
+      <c r="I130" t="s">
         <v>478</v>
-      </c>
-      <c r="I130" t="s">
-        <v>479</v>
       </c>
       <c r="J130">
         <v>0.02</v>
       </c>
       <c r="K130" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>128</v>
-      </c>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="131" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G131" s="1">
         <v>128</v>
       </c>
       <c r="H131" t="s">
+        <v>479</v>
+      </c>
+      <c r="I131" t="s">
         <v>480</v>
-      </c>
-      <c r="I131" t="s">
-        <v>481</v>
       </c>
       <c r="J131">
         <v>0.02</v>
       </c>
       <c r="K131" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>129</v>
-      </c>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="132" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G132" s="1">
         <v>129</v>
       </c>
       <c r="H132" t="s">
+        <v>481</v>
+      </c>
+      <c r="I132" t="s">
         <v>482</v>
-      </c>
-      <c r="I132" t="s">
-        <v>483</v>
       </c>
       <c r="J132">
         <v>0.01</v>
       </c>
       <c r="K132" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>130</v>
-      </c>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="133" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G133" s="1">
         <v>130</v>
       </c>
       <c r="H133" t="s">
+        <v>483</v>
+      </c>
+      <c r="I133" t="s">
         <v>484</v>
-      </c>
-      <c r="I133" t="s">
-        <v>485</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>131</v>
-      </c>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="134" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G134" s="1">
         <v>131</v>
       </c>
       <c r="H134" t="s">
+        <v>485</v>
+      </c>
+      <c r="I134" t="s">
         <v>486</v>
-      </c>
-      <c r="I134" t="s">
-        <v>487</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>132</v>
-      </c>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G135" s="1">
         <v>132</v>
       </c>
       <c r="H135" t="s">
+        <v>487</v>
+      </c>
+      <c r="I135" t="s">
         <v>488</v>
-      </c>
-      <c r="I135" t="s">
-        <v>489</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C135" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:J2"/>
@@ -6298,5 +6259,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/基金/基金定投/指数基金.xlsx
+++ b/基金/基金定投/指数基金.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0DEFC-5297-4A01-A2A8-C4018039CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF07FA-D1F4-453E-98E6-D31C7D7B14CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2012,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2029,6 +2029,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,8 +2039,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2333,7 +2332,7 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2352,34 +2351,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2415,7 +2414,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -2447,7 +2446,7 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5">
@@ -2479,7 +2478,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D6">
@@ -2511,7 +2510,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
@@ -2543,7 +2542,7 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
@@ -2575,7 +2574,7 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9">
@@ -2607,7 +2606,7 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10">
@@ -2639,7 +2638,7 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D11">
@@ -2671,7 +2670,7 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
@@ -2703,7 +2702,7 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13">
@@ -2735,7 +2734,7 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D14">
@@ -2760,14 +2759,14 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15">
@@ -2792,14 +2791,14 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
@@ -2824,14 +2823,14 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17">
@@ -2863,7 +2862,7 @@
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18">
@@ -2895,7 +2894,7 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D19">
@@ -2920,14 +2919,14 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20">
@@ -2952,14 +2951,14 @@
         <v>574</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21">
@@ -2991,7 +2990,7 @@
       <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D22">
@@ -3023,7 +3022,7 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D23">
@@ -3055,7 +3054,7 @@
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
       <c r="D24">
@@ -3087,7 +3086,7 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25">
@@ -3119,7 +3118,7 @@
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
       <c r="D26">
@@ -3151,7 +3150,7 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D27">
@@ -3183,7 +3182,7 @@
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D28">
@@ -3215,7 +3214,7 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D29">
@@ -3247,7 +3246,7 @@
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30">
@@ -3279,7 +3278,7 @@
       <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31">
@@ -3304,14 +3303,14 @@
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>635</v>
       </c>
       <c r="D32">
@@ -3341,7 +3340,7 @@
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
       <c r="D33">
@@ -3373,7 +3372,7 @@
       <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D34">
@@ -3405,7 +3404,7 @@
       <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
       <c r="D35">
@@ -3437,7 +3436,7 @@
       <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D36">
@@ -3469,7 +3468,7 @@
       <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D37">
@@ -3501,7 +3500,7 @@
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38">
@@ -3533,7 +3532,7 @@
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" t="s">
         <v>76</v>
       </c>
       <c r="D39">
@@ -3565,7 +3564,7 @@
       <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D40">
@@ -3597,7 +3596,7 @@
       <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41">
@@ -3629,7 +3628,7 @@
       <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42">
@@ -3661,7 +3660,7 @@
       <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D43">
@@ -3686,14 +3685,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" t="s">
         <v>86</v>
       </c>
       <c r="D44">
@@ -3725,7 +3724,7 @@
       <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D45">

--- a/基金/基金定投/指数基金.xlsx
+++ b/基金/基金定投/指数基金.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\基金\基金定投\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0DEFC-5297-4A01-A2A8-C4018039CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6C11C-44E7-4815-A6B5-CC01B394A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2012,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2029,6 +2029,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,8 +2039,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2333,56 +2332,56 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2408,14 +2407,14 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -2440,14 +2439,14 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5">
@@ -2472,14 +2471,14 @@
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D6">
@@ -2504,14 +2503,14 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
@@ -2536,14 +2535,14 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
@@ -2568,14 +2567,14 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9">
@@ -2600,14 +2599,14 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10">
@@ -2632,14 +2631,14 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D11">
@@ -2664,14 +2663,14 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
@@ -2696,14 +2695,14 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13">
@@ -2728,14 +2727,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D14">
@@ -2760,14 +2759,14 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15">
@@ -2792,14 +2791,14 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
@@ -2824,14 +2823,14 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17">
@@ -2856,14 +2855,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18">
@@ -2888,14 +2887,14 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D19">
@@ -2920,14 +2919,14 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20">
@@ -2952,14 +2951,14 @@
         <v>574</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21">
@@ -2984,14 +2983,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D22">
@@ -3016,14 +3015,14 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D23">
@@ -3048,14 +3047,14 @@
         <v>577</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
       <c r="D24">
@@ -3080,14 +3079,14 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25">
@@ -3112,14 +3111,14 @@
         <v>579</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
       <c r="D26">
@@ -3144,14 +3143,14 @@
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D27">
@@ -3176,14 +3175,14 @@
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D28">
@@ -3208,14 +3207,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D29">
@@ -3240,14 +3239,14 @@
         <v>582</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30">
@@ -3272,14 +3271,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31">
@@ -3304,14 +3303,14 @@
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>635</v>
       </c>
       <c r="D32">
@@ -3334,14 +3333,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
       <c r="D33">
@@ -3366,14 +3365,14 @@
         <v>577</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D34">
@@ -3398,14 +3397,14 @@
         <v>586</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
       <c r="D35">
@@ -3430,14 +3429,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D36">
@@ -3462,14 +3461,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D37">
@@ -3494,14 +3493,14 @@
         <v>578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38">
@@ -3526,14 +3525,14 @@
         <v>588</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" t="s">
         <v>76</v>
       </c>
       <c r="D39">
@@ -3558,14 +3557,14 @@
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D40">
@@ -3590,14 +3589,14 @@
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41">
@@ -3622,14 +3621,14 @@
         <v>588</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42">
@@ -3654,14 +3653,14 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D43">
@@ -3686,14 +3685,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" t="s">
         <v>86</v>
       </c>
       <c r="D44">
@@ -3718,14 +3717,14 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D45">
@@ -3750,7 +3749,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -4034,7 +4033,7 @@
       </c>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -4094,7 +4093,7 @@
       </c>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4250,7 +4249,7 @@
       </c>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4312,7 +4311,7 @@
       </c>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -4560,7 +4559,7 @@
       </c>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -4590,7 +4589,7 @@
       </c>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -4746,7 +4745,7 @@
       </c>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -4806,7 +4805,7 @@
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -4836,7 +4835,7 @@
       </c>
       <c r="K80"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -4930,7 +4929,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>82</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -5054,7 +5053,7 @@
       </c>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -5304,7 +5303,7 @@
       </c>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -5556,7 +5555,7 @@
       </c>
       <c r="K103"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G114" s="1">
         <v>111</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G115" s="1">
         <v>112</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G116" s="1">
         <v>113</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G117" s="1">
         <v>114</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G118" s="1">
         <v>115</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G119" s="1">
         <v>116</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G120" s="1">
         <v>117</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G121" s="1">
         <v>118</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G122" s="1">
         <v>119</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G123" s="1">
         <v>120</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G124" s="1">
         <v>121</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G125" s="1">
         <v>122</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G126" s="1">
         <v>123</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G127" s="1">
         <v>124</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G128" s="1">
         <v>125</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="129" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G129" s="1">
         <v>126</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G130" s="1">
         <v>127</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="131" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G131" s="1">
         <v>128</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="132" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G132" s="1">
         <v>129</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="133" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G133" s="1">
         <v>130</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="134" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G134" s="1">
         <v>131</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="135" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="G135" s="1">
         <v>132</v>
       </c>
